--- a/Server/conf/names_to_account1117.xlsx
+++ b/Server/conf/names_to_account1117.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$16</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Account</t>
   </si>
@@ -50,108 +50,91 @@
     </r>
   </si>
   <si>
-    <t>00400116</t>
-  </si>
-  <si>
-    <t>xhqh@123</t>
-  </si>
-  <si>
-    <t>00400117</t>
-  </si>
-  <si>
-    <t>00400118</t>
+    <t>00400101</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>xhqh@1234</t>
+  </si>
+  <si>
+    <t>00400102</t>
+  </si>
+  <si>
+    <t>陆征豪</t>
+  </si>
+  <si>
+    <t>00400103</t>
+  </si>
+  <si>
+    <t>曾宪森</t>
+  </si>
+  <si>
+    <t>00400104</t>
+  </si>
+  <si>
+    <t>00400105</t>
+  </si>
+  <si>
+    <t>吴可</t>
+  </si>
+  <si>
+    <t>00400106</t>
+  </si>
+  <si>
+    <t>严雨贝</t>
+  </si>
+  <si>
+    <t>00400107</t>
+  </si>
+  <si>
+    <t>刘群龙</t>
+  </si>
+  <si>
+    <t>00400108</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>00400109</t>
   </si>
   <si>
     <t>章弟</t>
   </si>
   <si>
-    <t>xhqh@1234</t>
-  </si>
-  <si>
-    <t>00400119</t>
+    <t>00400110</t>
+  </si>
+  <si>
+    <t>唐承利</t>
+  </si>
+  <si>
+    <t>00400111</t>
+  </si>
+  <si>
+    <t>黄永平</t>
+  </si>
+  <si>
+    <t>00400112</t>
+  </si>
+  <si>
+    <t>周文龙</t>
+  </si>
+  <si>
+    <t>00400113</t>
   </si>
   <si>
     <t>陈文斌</t>
   </si>
   <si>
-    <t>00400120</t>
-  </si>
-  <si>
-    <t>王吉</t>
-  </si>
-  <si>
-    <t>00400121</t>
-  </si>
-  <si>
-    <t>毛毛</t>
-  </si>
-  <si>
-    <t>00400122</t>
-  </si>
-  <si>
-    <t>周文奇</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uazai888</t>
-    </r>
-  </si>
-  <si>
-    <t>00400123</t>
-  </si>
-  <si>
-    <t>张腾飞</t>
-  </si>
-  <si>
-    <t>00400124</t>
-  </si>
-  <si>
-    <t>刘群龙</t>
-  </si>
-  <si>
-    <t>00400125</t>
-  </si>
-  <si>
-    <t>周熙荣</t>
-  </si>
-  <si>
-    <t>00400126</t>
-  </si>
-  <si>
-    <t>周志鸿</t>
-  </si>
-  <si>
-    <t>00400127</t>
-  </si>
-  <si>
-    <t>唐承利</t>
-  </si>
-  <si>
-    <t>00400128</t>
-  </si>
-  <si>
-    <t>户威</t>
-  </si>
-  <si>
-    <t>00400129</t>
-  </si>
-  <si>
-    <t>00400130</t>
+    <t>00400114</t>
+  </si>
+  <si>
+    <t>00400115</t>
+  </si>
+  <si>
+    <t>刘国聘</t>
   </si>
 </sst>
 </file>
@@ -160,12 +143,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +164,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -191,6 +176,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -199,129 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,19 +335,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,163 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,20 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +559,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,22 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,18 +617,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,141 +646,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,32 +787,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -831,7 +809,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -881,9 +859,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -1179,18 +1155,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1200,10 +1175,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1211,64 +1186,70 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>116</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>20000</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>117</v>
-      </c>
-      <c r="C3" s="8">
-        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>14000</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>33000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
-        <v>13000</v>
+      <c r="B5" s="2">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
+      <c r="C6" s="4">
+        <v>19000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1278,135 +1259,167 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
+      <c r="C7" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>18000</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>23000</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8">
-        <v>16000</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="4">
+        <v>19000</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8">
-        <v>500</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4">
+        <v>21000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
-        <v>130</v>
-      </c>
-      <c r="C16" s="8">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="C16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C16">
+  <autoFilter ref="A1:D16">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="xhqh@123"/>
-    <hyperlink ref="D4" r:id="rId2" display="xhqh@1234"/>
-    <hyperlink ref="D6" r:id="rId2" display="xhqh@1234"/>
-    <hyperlink ref="D7" r:id="rId2" display="xhqh@1234"/>
+    <hyperlink ref="D2" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D3" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D4" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D5" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D6" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D7" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D9" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D8" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D10" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D11" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D12" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D15" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D13" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D16" r:id="rId1" display="xhqh@1234"/>
+    <hyperlink ref="D14" r:id="rId1" display="xhqh@1234"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
